--- a/01.VietSoftHRM/VietSoftHRM/bin/Release/Template/TemplateTaiNanLaoDong.xlsx
+++ b/01.VietSoftHRM/VietSoftHRM/bin/Release/Template/TemplateTaiNanLaoDong.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.HRM\04.Vs.HRM\Vs.HRM\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.HRM\01.VietSoftHRM\VietSoftHRM\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t xml:space="preserve">Tổng số </t>
   </si>
@@ -210,169 +210,22 @@
  lương</t>
   </si>
   <si>
+    <t>Đơn vị báo cáo : Công ty TNHH MTV THỜI TRANG SB NGOC TRAI</t>
+  </si>
+  <si>
+    <t>Địa chỉ: 18 Tăng Nhơn Phú, P.Phước Long B, Quận 9</t>
+  </si>
+  <si>
+    <t>Sở Lao động Thương binh - Xã hội Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
     <t>1. Chia theo yếu tố gây chấn thương</t>
   </si>
   <si>
-    <t xml:space="preserve">Đơn vị báo cáo : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Địa chỉ: </t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.MaSo}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.TongSoVu}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.SoVuCoNguoiChet}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.SoVuCoHaiNguoiTuVong}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.TongSoNguoiTaiNan}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.SoLuongLaoDongNuTaiNan}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.SoNguoiBiTaNanChet}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.SoNguoiBiTaiNanThuongNang}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.SoNguoiBiTaiNanThuongNhe</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.ThieBiKhongDamBaoAnToan}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.KhongCoThieBiAnToan}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.KhongCoPhuongTienBaoVeCaNhan}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.KhongSuDungPhuongTienBaoVeCaNhan}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.ChuaHuanLuyenAnToanLaoDong}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.KhongCoQuyTrinhBienPhapLamViecAnToan}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.ToChucLaoDong}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.NguoiBiTaiNanViPhamQuyTrinhLaoDong}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.NguoiKhacViPhamQuyTrinhLaoDong}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.DieuKienLamViecKhongTot}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.KhachQuanKhoTranh}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.NguyenNhanChuaKieDen}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.NhoHon18}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.Tuoi18Den30}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.Tu46TuoiTroLen}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.NhoHon1Nam}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.Tu1Den5Nam}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.Tu6Den10Nam}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.Tu11Den20Nam}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.Tren20Nam}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.KhongXacDinhThoiHan}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.Tu12Den36thang}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.Duoi12Thang}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.KhongCoHopDong}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.SoLuongDaHuanLuyenVSATTP}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.TongSoNgayNghiViTaiNanLaoDong}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.TongChiPhiBangTien}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.YTe}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.TraLuong}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.BoiThuongTroCap}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.ThietHaiTaiSan}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.GhiChu}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDongTH.TongSoLaoDongBinhQuanCoSo}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDongTH.TongHopTinhHinhLaoDong}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDongTH.DIA_CHI}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDongTH.ThuocLoaiHinhCoSo}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDongTH.DV_NHAN_BAO_CAO}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDongTH.TEN_DV}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDongTH.M_QH1}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDongTH.M_QH2}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDongTH.M_QH3}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDongTH.M_QH4}</t>
-  </si>
-  <si>
-    <t>{TaiNanLaoDong.Tuoi31Den45}</t>
+    <t>I. Tổng số lao động bình quân của cơ sở trong kỳ báo cáo: 833 người; Trong đó nữ: 689 người; Tổng quỹ lương: 855 đồng</t>
+  </si>
+  <si>
+    <t>II. Tổng hợp tình hình lao động:</t>
   </si>
 </sst>
 </file>
@@ -600,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -666,6 +519,63 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -675,15 +585,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,57 +593,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AQ23" sqref="AQ23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1191,39 +1041,36 @@
       <c r="AQ3" s="4"/>
     </row>
     <row r="4" spans="1:43">
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
       <c r="AE4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
@@ -1232,39 +1079,36 @@
       <c r="AQ4" s="4"/>
     </row>
     <row r="5" spans="1:43" ht="14.25" customHeight="1">
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
       <c r="AE5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
@@ -1273,40 +1117,38 @@
       <c r="AQ5" s="4"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
       <c r="AE6" t="s">
         <v>5</v>
       </c>
-      <c r="AI6" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="AI6" s="1"/>
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -1348,49 +1190,41 @@
       <c r="AQ7" s="4"/>
     </row>
     <row r="8" spans="1:43">
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
       <c r="AE8" t="s">
         <v>6</v>
       </c>
-      <c r="AG8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
@@ -1405,33 +1239,33 @@
       <c r="AQ9" s="4"/>
     </row>
     <row r="10" spans="1:43">
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
@@ -1452,7 +1286,7 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="13" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
@@ -1480,7 +1314,7 @@
     </row>
     <row r="14" spans="1:43" s="14" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="AF14" s="13"/>
       <c r="AG14" s="13"/>
@@ -1497,7 +1331,7 @@
     </row>
     <row r="15" spans="1:43" s="14" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="AF15" s="13"/>
       <c r="AG15" s="13"/>
@@ -1513,56 +1347,56 @@
       <c r="AQ15" s="13"/>
     </row>
     <row r="17" spans="1:43">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50" t="s">
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50" t="s">
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="46" t="s">
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="30" t="s">
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="34" t="s">
         <v>50</v>
       </c>
       <c r="AK17" s="37" t="s">
@@ -1573,214 +1407,214 @@
       <c r="AN17" s="38"/>
       <c r="AO17" s="38"/>
       <c r="AP17" s="39"/>
-      <c r="AQ17" s="27" t="s">
+      <c r="AQ17" s="46" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="31"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="35"/>
       <c r="AK18" s="40"/>
       <c r="AL18" s="41"/>
       <c r="AM18" s="41"/>
       <c r="AN18" s="41"/>
       <c r="AO18" s="41"/>
       <c r="AP18" s="42"/>
-      <c r="AQ18" s="28"/>
+      <c r="AQ18" s="47"/>
     </row>
     <row r="19" spans="1:43">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45" t="s">
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="45" t="s">
+      <c r="L19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="45" t="s">
+      <c r="M19" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="45" t="s">
+      <c r="N19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="45" t="s">
+      <c r="O19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="45" t="s">
+      <c r="P19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="45" t="s">
+      <c r="Q19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="45" t="s">
+      <c r="R19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="45" t="s">
+      <c r="S19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="T19" s="45" t="s">
+      <c r="T19" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="U19" s="45" t="s">
+      <c r="U19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="V19" s="45" t="s">
+      <c r="V19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="W19" s="48" t="s">
+      <c r="W19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="X19" s="48" t="s">
+      <c r="X19" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="Y19" s="48" t="s">
+      <c r="Y19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Z19" s="48" t="s">
+      <c r="Z19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AA19" s="48" t="s">
+      <c r="AA19" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AB19" s="48" t="s">
+      <c r="AB19" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AC19" s="45" t="s">
+      <c r="AC19" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD19" s="45" t="s">
+      <c r="AD19" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AE19" s="51" t="s">
+      <c r="AE19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="AF19" s="36" t="s">
+      <c r="AF19" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="48" t="s">
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="30" t="s">
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="AL19" s="33" t="s">
+      <c r="AL19" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="30" t="s">
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AQ19" s="28"/>
+      <c r="AQ19" s="47"/>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="45" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AG20" s="45" t="s">
+      <c r="AG20" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AH20" s="45" t="s">
+      <c r="AH20" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="36" t="s">
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="AM20" s="36" t="s">
+      <c r="AM20" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="28"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="35"/>
+      <c r="AQ20" s="47"/>
     </row>
     <row r="21" spans="1:43" ht="83.25" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1805,34 +1639,34 @@
       <c r="J21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="36"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="45"/>
       <c r="AM21" s="6" t="s">
         <v>56</v>
       </c>
@@ -1842,8 +1676,8 @@
       <c r="AO21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="29"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="48"/>
     </row>
     <row r="22" spans="1:43" s="3" customFormat="1">
       <c r="A22" s="12">
@@ -1976,140 +1810,56 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="17.25" customHeight="1">
+    <row r="23" spans="1:43" ht="15.75">
       <c r="A23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="T23" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="V23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="W23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="X23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y23" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA23" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC23" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE23" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF23" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG23" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH23" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI23" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ23" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK23" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL23" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM23" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN23" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO23" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP23" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ23" s="52" t="s">
-        <v>103</v>
-      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" customHeight="1">
       <c r="A24" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -2246,32 +1996,12 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:J18"/>
-    <mergeCell ref="K17:V18"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="U19:U21"/>
-    <mergeCell ref="V19:V21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="D4:AC4"/>
-    <mergeCell ref="AA19:AA21"/>
-    <mergeCell ref="AB19:AB21"/>
-    <mergeCell ref="AC19:AC21"/>
-    <mergeCell ref="W19:W21"/>
-    <mergeCell ref="X19:X21"/>
-    <mergeCell ref="Y19:Y21"/>
-    <mergeCell ref="Z19:Z21"/>
-    <mergeCell ref="D10:AD10"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="W17:Z18"/>
-    <mergeCell ref="AA17:AE18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="AQ17:AQ21"/>
+    <mergeCell ref="AK19:AK21"/>
+    <mergeCell ref="AL19:AO19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="AP19:AP21"/>
     <mergeCell ref="AJ17:AJ21"/>
     <mergeCell ref="AK17:AP18"/>
     <mergeCell ref="D5:AC5"/>
@@ -2288,12 +2018,32 @@
     <mergeCell ref="AG20:AG21"/>
     <mergeCell ref="AH20:AH21"/>
     <mergeCell ref="AI19:AI21"/>
-    <mergeCell ref="AQ17:AQ21"/>
-    <mergeCell ref="AK19:AK21"/>
-    <mergeCell ref="AL19:AO19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AM20:AO20"/>
-    <mergeCell ref="AP19:AP21"/>
+    <mergeCell ref="D4:AC4"/>
+    <mergeCell ref="AA19:AA21"/>
+    <mergeCell ref="AB19:AB21"/>
+    <mergeCell ref="AC19:AC21"/>
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="X19:X21"/>
+    <mergeCell ref="Y19:Y21"/>
+    <mergeCell ref="Z19:Z21"/>
+    <mergeCell ref="D10:AD10"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="AA17:AE18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:J18"/>
+    <mergeCell ref="K17:V18"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="V19:V21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.43" right="0.16" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/01.VietSoftHRM/VietSoftHRM/bin/Release/Template/TemplateTaiNanLaoDong.xlsx
+++ b/01.VietSoftHRM/VietSoftHRM/bin/Release/Template/TemplateTaiNanLaoDong.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.HRM\01.VietSoftHRM\VietSoftHRM\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.HRM\04.Vs.HRM\Vs.HRM\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
   <si>
     <t xml:space="preserve">Tổng số </t>
   </si>
@@ -210,22 +210,169 @@
  lương</t>
   </si>
   <si>
-    <t>Đơn vị báo cáo : Công ty TNHH MTV THỜI TRANG SB NGOC TRAI</t>
-  </si>
-  <si>
-    <t>Địa chỉ: 18 Tăng Nhơn Phú, P.Phước Long B, Quận 9</t>
-  </si>
-  <si>
-    <t>Sở Lao động Thương binh - Xã hội Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
     <t>1. Chia theo yếu tố gây chấn thương</t>
   </si>
   <si>
-    <t>I. Tổng số lao động bình quân của cơ sở trong kỳ báo cáo: 833 người; Trong đó nữ: 689 người; Tổng quỹ lương: 855 đồng</t>
-  </si>
-  <si>
-    <t>II. Tổng hợp tình hình lao động:</t>
+    <t xml:space="preserve">Đơn vị báo cáo : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ: </t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.MaSo}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.TongSoVu}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.SoVuCoNguoiChet}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.SoVuCoHaiNguoiTuVong}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.TongSoNguoiTaiNan}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.SoLuongLaoDongNuTaiNan}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.SoNguoiBiTaNanChet}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.SoNguoiBiTaiNanThuongNang}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.SoNguoiBiTaiNanThuongNhe</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.ThieBiKhongDamBaoAnToan}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.KhongCoThieBiAnToan}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.KhongCoPhuongTienBaoVeCaNhan}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.KhongSuDungPhuongTienBaoVeCaNhan}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.ChuaHuanLuyenAnToanLaoDong}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.KhongCoQuyTrinhBienPhapLamViecAnToan}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.ToChucLaoDong}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.NguoiBiTaiNanViPhamQuyTrinhLaoDong}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.NguoiKhacViPhamQuyTrinhLaoDong}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.DieuKienLamViecKhongTot}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.KhachQuanKhoTranh}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.NguyenNhanChuaKieDen}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.NhoHon18}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.Tuoi18Den30}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.Tu46TuoiTroLen}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.NhoHon1Nam}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.Tu1Den5Nam}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.Tu6Den10Nam}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.Tu11Den20Nam}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.Tren20Nam}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.KhongXacDinhThoiHan}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.Tu12Den36thang}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.Duoi12Thang}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.KhongCoHopDong}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.SoLuongDaHuanLuyenVSATTP}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.TongSoNgayNghiViTaiNanLaoDong}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.TongChiPhiBangTien}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.YTe}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.TraLuong}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.BoiThuongTroCap}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.ThietHaiTaiSan}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.GhiChu}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDongTH.TongSoLaoDongBinhQuanCoSo}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDongTH.TongHopTinhHinhLaoDong}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDongTH.DIA_CHI}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDongTH.ThuocLoaiHinhCoSo}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDongTH.DV_NHAN_BAO_CAO}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDongTH.TEN_DV}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDongTH.M_QH1}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDongTH.M_QH2}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDongTH.M_QH3}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDongTH.M_QH4}</t>
+  </si>
+  <si>
+    <t>{TaiNanLaoDong.Tuoi31Den45}</t>
   </si>
 </sst>
 </file>
@@ -453,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,80 +666,83 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="AD15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AQ23" sqref="AQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1041,36 +1191,39 @@
       <c r="AQ3" s="4"/>
     </row>
     <row r="4" spans="1:43">
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
       <c r="AE4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>109</v>
       </c>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
@@ -1079,36 +1232,39 @@
       <c r="AQ4" s="4"/>
     </row>
     <row r="5" spans="1:43" ht="14.25" customHeight="1">
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
       <c r="AE5" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>106</v>
       </c>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
@@ -1117,38 +1273,40 @@
       <c r="AQ5" s="4"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
       <c r="AE6" t="s">
         <v>5</v>
       </c>
-      <c r="AI6" s="1"/>
+      <c r="AI6" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -1190,41 +1348,49 @@
       <c r="AQ7" s="4"/>
     </row>
     <row r="8" spans="1:43">
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
       <c r="AE8" t="s">
         <v>6</v>
       </c>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
+      <c r="AG8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
@@ -1239,33 +1405,33 @@
       <c r="AQ9" s="4"/>
     </row>
     <row r="10" spans="1:43">
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
@@ -1286,7 +1452,7 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="13" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
@@ -1314,7 +1480,7 @@
     </row>
     <row r="14" spans="1:43" s="14" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="AF14" s="13"/>
       <c r="AG14" s="13"/>
@@ -1331,7 +1497,7 @@
     </row>
     <row r="15" spans="1:43" s="14" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="AF15" s="13"/>
       <c r="AG15" s="13"/>
@@ -1347,56 +1513,56 @@
       <c r="AQ15" s="13"/>
     </row>
     <row r="17" spans="1:43">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28" t="s">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28" t="s">
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28" t="s">
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="43" t="s">
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AJ17" s="34" t="s">
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="30" t="s">
         <v>50</v>
       </c>
       <c r="AK17" s="37" t="s">
@@ -1407,214 +1573,214 @@
       <c r="AN17" s="38"/>
       <c r="AO17" s="38"/>
       <c r="AP17" s="39"/>
-      <c r="AQ17" s="46" t="s">
+      <c r="AQ17" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="35"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="31"/>
       <c r="AK18" s="40"/>
       <c r="AL18" s="41"/>
       <c r="AM18" s="41"/>
       <c r="AN18" s="41"/>
       <c r="AO18" s="41"/>
       <c r="AP18" s="42"/>
-      <c r="AQ18" s="47"/>
+      <c r="AQ18" s="28"/>
     </row>
     <row r="19" spans="1:43">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="29" t="s">
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="29" t="s">
+      <c r="M19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="29" t="s">
+      <c r="N19" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="29" t="s">
+      <c r="O19" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="29" t="s">
+      <c r="P19" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="29" t="s">
+      <c r="Q19" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="29" t="s">
+      <c r="R19" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="29" t="s">
+      <c r="S19" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="T19" s="29" t="s">
+      <c r="T19" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="U19" s="29" t="s">
+      <c r="U19" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="V19" s="29" t="s">
+      <c r="V19" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="W19" s="31" t="s">
+      <c r="W19" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="X19" s="31" t="s">
+      <c r="X19" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="Y19" s="31" t="s">
+      <c r="Y19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z19" s="31" t="s">
+      <c r="Z19" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="AA19" s="31" t="s">
+      <c r="AA19" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="AB19" s="31" t="s">
+      <c r="AB19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AC19" s="29" t="s">
+      <c r="AC19" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AD19" s="29" t="s">
+      <c r="AD19" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="AE19" s="33" t="s">
+      <c r="AE19" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="AF19" s="45" t="s">
+      <c r="AF19" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="31" t="s">
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="34" t="s">
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AL19" s="49" t="s">
+      <c r="AL19" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AM19" s="50"/>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="34" t="s">
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AQ19" s="47"/>
+      <c r="AQ19" s="28"/>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="29" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="AG20" s="29" t="s">
+      <c r="AG20" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="AH20" s="29" t="s">
+      <c r="AH20" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
-      <c r="AL20" s="45" t="s">
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AM20" s="45" t="s">
+      <c r="AM20" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="35"/>
-      <c r="AQ20" s="47"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="28"/>
     </row>
     <row r="21" spans="1:43" ht="83.25" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1639,34 +1805,34 @@
       <c r="J21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="36"/>
       <c r="AM21" s="6" t="s">
         <v>56</v>
       </c>
@@ -1676,8 +1842,8 @@
       <c r="AO21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="48"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="29"/>
     </row>
     <row r="22" spans="1:43" s="3" customFormat="1">
       <c r="A22" s="12">
@@ -1810,56 +1976,140 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="15.75">
+    <row r="23" spans="1:43" ht="17.25" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
+      <c r="B23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF23" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG23" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH23" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI23" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ23" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK23" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL23" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM23" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN23" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO23" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP23" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ23" s="52" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="24" spans="1:43" ht="15.75" customHeight="1">
       <c r="A24" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -1996,12 +2246,32 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="AQ17:AQ21"/>
-    <mergeCell ref="AK19:AK21"/>
-    <mergeCell ref="AL19:AO19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AM20:AO20"/>
-    <mergeCell ref="AP19:AP21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:J18"/>
+    <mergeCell ref="K17:V18"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="V19:V21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="D4:AC4"/>
+    <mergeCell ref="AA19:AA21"/>
+    <mergeCell ref="AB19:AB21"/>
+    <mergeCell ref="AC19:AC21"/>
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="X19:X21"/>
+    <mergeCell ref="Y19:Y21"/>
+    <mergeCell ref="Z19:Z21"/>
+    <mergeCell ref="D10:AD10"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="AA17:AE18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AD19:AD21"/>
     <mergeCell ref="AJ17:AJ21"/>
     <mergeCell ref="AK17:AP18"/>
     <mergeCell ref="D5:AC5"/>
@@ -2018,32 +2288,12 @@
     <mergeCell ref="AG20:AG21"/>
     <mergeCell ref="AH20:AH21"/>
     <mergeCell ref="AI19:AI21"/>
-    <mergeCell ref="D4:AC4"/>
-    <mergeCell ref="AA19:AA21"/>
-    <mergeCell ref="AB19:AB21"/>
-    <mergeCell ref="AC19:AC21"/>
-    <mergeCell ref="W19:W21"/>
-    <mergeCell ref="X19:X21"/>
-    <mergeCell ref="Y19:Y21"/>
-    <mergeCell ref="Z19:Z21"/>
-    <mergeCell ref="D10:AD10"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="W17:Z18"/>
-    <mergeCell ref="AA17:AE18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AD19:AD21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:J18"/>
-    <mergeCell ref="K17:V18"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="U19:U21"/>
-    <mergeCell ref="V19:V21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="AQ17:AQ21"/>
+    <mergeCell ref="AK19:AK21"/>
+    <mergeCell ref="AL19:AO19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="AP19:AP21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.43" right="0.16" top="1" bottom="1" header="0.5" footer="0.5"/>
